--- a/Documentation/Random_graph.xlsx
+++ b/Documentation/Random_graph.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="8625" windowHeight="8205"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="8625" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Gauss" sheetId="3" r:id="rId2"/>
+    <sheet name="dGraph" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t xml:space="preserve">Binlow </t>
   </si>
@@ -948,11 +954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="844003792"/>
-        <c:axId val="843991280"/>
+        <c:axId val="153503296"/>
+        <c:axId val="153504928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="844003792"/>
+        <c:axId val="153503296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1067,12 +1073,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843991280"/>
+        <c:crossAx val="153504928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="843991280"/>
+        <c:axId val="153504928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1191,1842 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844003792"/>
+        <c:crossAx val="153503296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Gauss!$D$9:$D$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>4.1231056256176597</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1644140029689698</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7177978870813408</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.677078252031301</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.420577856662099</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.514147167125699</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>34.058772731852798</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>43.335897360040903</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>53.478967828483697</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>66.294796175868797</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>80.417659752071799</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>93.8402898546248</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>109.530817581172</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>126.162593505365</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>143.47125147568701</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>161.07451691686001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>177.361213347225</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>193.32614929181199</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>208.96411175127599</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>221.302959763307</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>233.44806702990701</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>241.45185855569599</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>247.60452338356001</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>250.461573899071</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>250.81666611291999</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>247.31154441311401</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>241.30271444805501</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>232.8626204439</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>222.499438201537</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>207.94229968912001</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193.25630649476801</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>177.039543605376</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>161.36914203155399</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>143.66627996854299</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>127.157382797854</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>110.308657865101</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>94.302704096966295</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>79.624116949577498</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>65.642973729105194</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>54.267854204860498</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>43.943145085439603</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>33.749074061372397</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>26.076809620810501</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>19.899748742132399</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>15.3622914957372</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11.401754250991299</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>7.2111025509279703</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>5.3851648071345002</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>3.4641016151377499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Gauss!$D$9:$D$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>4.1231056256176597</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1644140029689698</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7177978870813408</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.677078252031301</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.420577856662099</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.514147167125699</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>34.058772731852798</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>43.335897360040903</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>53.478967828483697</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>66.294796175868797</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>80.417659752071799</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>93.8402898546248</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>109.530817581172</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>126.162593505365</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>143.47125147568701</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>161.07451691686001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>177.361213347225</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>193.32614929181199</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>208.96411175127599</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>221.302959763307</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>233.44806702990701</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>241.45185855569599</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>247.60452338356001</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>250.461573899071</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>250.81666611291999</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>247.31154441311401</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>241.30271444805501</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>232.8626204439</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>222.499438201537</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>207.94229968912001</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193.25630649476801</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>177.039543605376</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>161.36914203155399</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>143.66627996854299</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>127.157382797854</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>110.308657865101</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>94.302704096966295</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>79.624116949577498</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>65.642973729105194</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>54.267854204860498</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>43.943145085439603</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>33.749074061372397</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>26.076809620810501</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>19.899748742132399</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>15.3622914957372</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11.401754250991299</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>7.2111025509279703</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>5.3851648071345002</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>3.4641016151377499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]gauss_test!$B$9:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3199999999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.91999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.83999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.67999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.35999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.19999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]gauss_test!$C$9:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15917</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25945</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62731</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61163</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43240</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37348</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26040</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20640</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16169</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12168</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8893</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4309</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489826208"/>
+        <c:axId val="489819136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489826208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489819136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489819136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489826208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>dGraph!$D$9:$D$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>425.47972924688099</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>384.79345108772299</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>349.90855948375997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>315.70080772782302</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>286.34594461944101</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>257.70525799835701</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>233.17375495539801</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>210.97867190784899</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>190.66462702871701</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>173.23105957073599</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>156.46405337968201</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>142.010562987405</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>128.366662338786</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>115.68059474259201</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>104.556204980861</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>94.768138105589003</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86.2090482490092</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>77.730302971235105</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>69.978568147683603</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>63.134776470658302</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>57.523908073078601</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.105661880452097</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>47.738873049120002</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>42.755116652863897</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>39.166312055132202</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>35.552777669262298</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>31.749015732775</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28.266588050205101</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>25.787593916455201</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>23.151673805580401</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>20.976176963402999</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>19.313207915827899</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>16.370705543744901</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>15.6843871413581</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>14.866068747318501</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12.767145334803701</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>11.958260743101301</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>11.13552872566</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>8.6602540378443802</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8.6602540378443802</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>8.0622577482985491</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6.4807406984078604</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>5.6568542494923797</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>5.7445626465380197</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.5825756949558398</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4.7958315233127102</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1.41421356237309</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.6055512754639798</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2.8284271247461898</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>dGraph!$D$9:$D$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>425.47972924688099</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>384.79345108772299</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>349.90855948375997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>315.70080772782302</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>286.34594461944101</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>257.70525799835701</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>233.17375495539801</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>210.97867190784899</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>190.66462702871701</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>173.23105957073599</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>156.46405337968201</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>142.010562987405</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>128.366662338786</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>115.68059474259201</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>104.556204980861</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>94.768138105589003</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86.2090482490092</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>77.730302971235105</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>69.978568147683603</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>63.134776470658302</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>57.523908073078601</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.105661880452097</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>47.738873049120002</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>42.755116652863897</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>39.166312055132202</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>35.552777669262298</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>31.749015732775</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28.266588050205101</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>25.787593916455201</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>23.151673805580401</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>20.976176963402999</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>19.313207915827899</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>16.370705543744901</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>15.6843871413581</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>14.866068747318501</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12.767145334803701</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>11.958260743101301</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>11.13552872566</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>8.6602540378443802</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8.6602540378443802</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>8.0622577482985491</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6.4807406984078604</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>5.6568542494923797</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>5.7445626465380197</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.5825756949558398</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4.7958315233127102</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1.41421356237309</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.6055512754639798</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2.8284271247461898</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]d_test!$B$9:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>148.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]d_test!$C$9:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>181033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344330192"/>
+        <c:axId val="344328016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="344330192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344328016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344328016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344330192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1274,7 +3115,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1823,6 +4776,908 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="d_test"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9">
+            <v>1.5</v>
+          </cell>
+          <cell r="C9">
+            <v>181033</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>4.5</v>
+          </cell>
+          <cell r="C10">
+            <v>148066</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>7.5</v>
+          </cell>
+          <cell r="C11">
+            <v>122436</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>10.5</v>
+          </cell>
+          <cell r="C12">
+            <v>99667</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>13.5</v>
+          </cell>
+          <cell r="C13">
+            <v>81994</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>16.5</v>
+          </cell>
+          <cell r="C14">
+            <v>66412</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>19.5</v>
+          </cell>
+          <cell r="C15">
+            <v>54370</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>22.5</v>
+          </cell>
+          <cell r="C16">
+            <v>44512</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>25.5</v>
+          </cell>
+          <cell r="C17">
+            <v>36353</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>28.5</v>
+          </cell>
+          <cell r="C18">
+            <v>30009</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>31.5</v>
+          </cell>
+          <cell r="C19">
+            <v>24481</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>34.5</v>
+          </cell>
+          <cell r="C20">
+            <v>20167</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>37.5</v>
+          </cell>
+          <cell r="C21">
+            <v>16478</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>40.5</v>
+          </cell>
+          <cell r="C22">
+            <v>13382</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>43.5</v>
+          </cell>
+          <cell r="C23">
+            <v>10932</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>46.5</v>
+          </cell>
+          <cell r="C24">
+            <v>8981</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>49.5</v>
+          </cell>
+          <cell r="C25">
+            <v>7432</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>52.5</v>
+          </cell>
+          <cell r="C26">
+            <v>6042</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>55.5</v>
+          </cell>
+          <cell r="C27">
+            <v>4897</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>58.5</v>
+          </cell>
+          <cell r="C28">
+            <v>3986</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>61.5</v>
+          </cell>
+          <cell r="C29">
+            <v>3309</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>64.5</v>
+          </cell>
+          <cell r="C30">
+            <v>2715</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>67.5</v>
+          </cell>
+          <cell r="C31">
+            <v>2279</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>70.5</v>
+          </cell>
+          <cell r="C32">
+            <v>1828</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>73.5</v>
+          </cell>
+          <cell r="C33">
+            <v>1534</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>76.5</v>
+          </cell>
+          <cell r="C34">
+            <v>1264</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>79.5</v>
+          </cell>
+          <cell r="C35">
+            <v>1008</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>82.5</v>
+          </cell>
+          <cell r="C36">
+            <v>799</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>85.5</v>
+          </cell>
+          <cell r="C37">
+            <v>665</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>88.5</v>
+          </cell>
+          <cell r="C38">
+            <v>536</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>91.5</v>
+          </cell>
+          <cell r="C39">
+            <v>440</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>94.5</v>
+          </cell>
+          <cell r="C40">
+            <v>373</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>97.5</v>
+          </cell>
+          <cell r="C41">
+            <v>268</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>100.5</v>
+          </cell>
+          <cell r="C42">
+            <v>246</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>103.5</v>
+          </cell>
+          <cell r="C43">
+            <v>221</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>106.5</v>
+          </cell>
+          <cell r="C44">
+            <v>163</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>109.5</v>
+          </cell>
+          <cell r="C45">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>112.5</v>
+          </cell>
+          <cell r="C46">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>115.5</v>
+          </cell>
+          <cell r="C47">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>118.5</v>
+          </cell>
+          <cell r="C48">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>121.5</v>
+          </cell>
+          <cell r="C49">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>124.5</v>
+          </cell>
+          <cell r="C50">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>127.5</v>
+          </cell>
+          <cell r="C51">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>130.5</v>
+          </cell>
+          <cell r="C52">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>133.5</v>
+          </cell>
+          <cell r="C53">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>136.5</v>
+          </cell>
+          <cell r="C54">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>139.5</v>
+          </cell>
+          <cell r="C55">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>142.5</v>
+          </cell>
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>145.5</v>
+          </cell>
+          <cell r="C57">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>148.5</v>
+          </cell>
+          <cell r="C58">
+            <v>8</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="gauss_test"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9">
+            <v>-1.96</v>
+          </cell>
+          <cell r="C9">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>-1.88</v>
+          </cell>
+          <cell r="C10">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>-1.8</v>
+          </cell>
+          <cell r="C11">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>-1.72</v>
+          </cell>
+          <cell r="C12">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>-1.64</v>
+          </cell>
+          <cell r="C13">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>-1.56</v>
+          </cell>
+          <cell r="C14">
+            <v>417</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>-1.48</v>
+          </cell>
+          <cell r="C15">
+            <v>703</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>-1.4</v>
+          </cell>
+          <cell r="C16">
+            <v>1160</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>-1.3199999999999901</v>
+          </cell>
+          <cell r="C17">
+            <v>1878</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-1.24</v>
+          </cell>
+          <cell r="C18">
+            <v>2860</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>-1.1599999999999999</v>
+          </cell>
+          <cell r="C19">
+            <v>4395</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-1.08</v>
+          </cell>
+          <cell r="C20">
+            <v>6467</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>-1</v>
+          </cell>
+          <cell r="C21">
+            <v>8806</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>-0.91999999999999904</v>
+          </cell>
+          <cell r="C22">
+            <v>11997</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>-0.83999999999999897</v>
+          </cell>
+          <cell r="C23">
+            <v>15917</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>-0.76</v>
+          </cell>
+          <cell r="C24">
+            <v>20584</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>-0.67999999999999905</v>
+          </cell>
+          <cell r="C25">
+            <v>25945</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>-0.59999999999999898</v>
+          </cell>
+          <cell r="C26">
+            <v>31457</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>-0.52</v>
+          </cell>
+          <cell r="C27">
+            <v>37375</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>-0.439999999999999</v>
+          </cell>
+          <cell r="C28">
+            <v>43666</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>-0.35999999999999899</v>
+          </cell>
+          <cell r="C29">
+            <v>48975</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>-0.28000000000000003</v>
+          </cell>
+          <cell r="C30">
+            <v>54498</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>-0.19999999999999901</v>
+          </cell>
+          <cell r="C31">
+            <v>58299</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-0.119999999999999</v>
+          </cell>
+          <cell r="C32">
+            <v>61308</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>-0.04</v>
+          </cell>
+          <cell r="C33">
+            <v>62731</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>0.04</v>
+          </cell>
+          <cell r="C34">
+            <v>62909</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.12</v>
+          </cell>
+          <cell r="C35">
+            <v>61163</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>0.2</v>
+          </cell>
+          <cell r="C36">
+            <v>58227</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="C37">
+            <v>54225</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>0.35999999999999899</v>
+          </cell>
+          <cell r="C38">
+            <v>49506</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>0.439999999999999</v>
+          </cell>
+          <cell r="C39">
+            <v>43240</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>0.52</v>
+          </cell>
+          <cell r="C40">
+            <v>37348</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>0.6</v>
+          </cell>
+          <cell r="C41">
+            <v>31343</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>0.68</v>
+          </cell>
+          <cell r="C42">
+            <v>26040</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0.76</v>
+          </cell>
+          <cell r="C43">
+            <v>20640</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0.84</v>
+          </cell>
+          <cell r="C44">
+            <v>16169</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>0.91999999999999904</v>
+          </cell>
+          <cell r="C45">
+            <v>12168</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+          <cell r="C46">
+            <v>8893</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>1.08</v>
+          </cell>
+          <cell r="C47">
+            <v>6340</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>1.1599999999999999</v>
+          </cell>
+          <cell r="C48">
+            <v>4309</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>1.24</v>
+          </cell>
+          <cell r="C49">
+            <v>2945</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>1.32</v>
+          </cell>
+          <cell r="C50">
+            <v>1931</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>1.4</v>
+          </cell>
+          <cell r="C51">
+            <v>1139</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>1.48</v>
+          </cell>
+          <cell r="C52">
+            <v>680</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>1.56</v>
+          </cell>
+          <cell r="C53">
+            <v>396</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>1.64</v>
+          </cell>
+          <cell r="C54">
+            <v>236</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>1.72</v>
+          </cell>
+          <cell r="C55">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>1.8</v>
+          </cell>
+          <cell r="C56">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>1.88</v>
+          </cell>
+          <cell r="C57">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>1.96</v>
+          </cell>
+          <cell r="C58">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2450,4 +6305,1576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>999978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-1.96</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>4.1231056256176597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>-1.88</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>6.1644140029689698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-1.8</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>8.7177978870813408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-1.72</v>
+      </c>
+      <c r="C12">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>10.677078252031301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-1.64</v>
+      </c>
+      <c r="C13">
+        <v>225</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>-1.56</v>
+      </c>
+      <c r="C14">
+        <v>417</v>
+      </c>
+      <c r="D14">
+        <v>20.420577856662099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>-1.48</v>
+      </c>
+      <c r="C15">
+        <v>703</v>
+      </c>
+      <c r="D15">
+        <v>26.514147167125699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>-1.4</v>
+      </c>
+      <c r="C16">
+        <v>1160</v>
+      </c>
+      <c r="D16">
+        <v>34.058772731852798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>-1.3199999999999901</v>
+      </c>
+      <c r="C17">
+        <v>1878</v>
+      </c>
+      <c r="D17">
+        <v>43.335897360040903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>-1.24</v>
+      </c>
+      <c r="C18">
+        <v>2860</v>
+      </c>
+      <c r="D18">
+        <v>53.478967828483697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="C19">
+        <v>4395</v>
+      </c>
+      <c r="D19">
+        <v>66.294796175868797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>-1.08</v>
+      </c>
+      <c r="C20">
+        <v>6467</v>
+      </c>
+      <c r="D20">
+        <v>80.417659752071799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>8806</v>
+      </c>
+      <c r="D21">
+        <v>93.8402898546248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>-0.91999999999999904</v>
+      </c>
+      <c r="C22">
+        <v>11997</v>
+      </c>
+      <c r="D22">
+        <v>109.530817581172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>-0.83999999999999897</v>
+      </c>
+      <c r="C23">
+        <v>15917</v>
+      </c>
+      <c r="D23">
+        <v>126.162593505365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>-0.76</v>
+      </c>
+      <c r="C24">
+        <v>20584</v>
+      </c>
+      <c r="D24">
+        <v>143.47125147568701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>-0.67999999999999905</v>
+      </c>
+      <c r="C25">
+        <v>25945</v>
+      </c>
+      <c r="D25">
+        <v>161.07451691686001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>-0.59999999999999898</v>
+      </c>
+      <c r="C26">
+        <v>31457</v>
+      </c>
+      <c r="D26">
+        <v>177.361213347225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>-0.52</v>
+      </c>
+      <c r="C27">
+        <v>37375</v>
+      </c>
+      <c r="D27">
+        <v>193.32614929181199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>-0.439999999999999</v>
+      </c>
+      <c r="C28">
+        <v>43666</v>
+      </c>
+      <c r="D28">
+        <v>208.96411175127599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>-0.35999999999999899</v>
+      </c>
+      <c r="C29">
+        <v>48975</v>
+      </c>
+      <c r="D29">
+        <v>221.302959763307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C30">
+        <v>54498</v>
+      </c>
+      <c r="D30">
+        <v>233.44806702990701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>-0.19999999999999901</v>
+      </c>
+      <c r="C31">
+        <v>58299</v>
+      </c>
+      <c r="D31">
+        <v>241.45185855569599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>-0.119999999999999</v>
+      </c>
+      <c r="C32">
+        <v>61308</v>
+      </c>
+      <c r="D32">
+        <v>247.60452338356001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>-0.04</v>
+      </c>
+      <c r="C33">
+        <v>62731</v>
+      </c>
+      <c r="D33">
+        <v>250.461573899071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.04</v>
+      </c>
+      <c r="C34">
+        <v>62909</v>
+      </c>
+      <c r="D34">
+        <v>250.81666611291999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>0.12</v>
+      </c>
+      <c r="C35">
+        <v>61163</v>
+      </c>
+      <c r="D35">
+        <v>247.31154441311401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>58227</v>
+      </c>
+      <c r="D36">
+        <v>241.30271444805501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C37">
+        <v>54225</v>
+      </c>
+      <c r="D37">
+        <v>232.8626204439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>0.35999999999999899</v>
+      </c>
+      <c r="C38">
+        <v>49506</v>
+      </c>
+      <c r="D38">
+        <v>222.499438201537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0.439999999999999</v>
+      </c>
+      <c r="C39">
+        <v>43240</v>
+      </c>
+      <c r="D39">
+        <v>207.94229968912001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>0.52</v>
+      </c>
+      <c r="C40">
+        <v>37348</v>
+      </c>
+      <c r="D40">
+        <v>193.25630649476801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>0.6</v>
+      </c>
+      <c r="C41">
+        <v>31343</v>
+      </c>
+      <c r="D41">
+        <v>177.039543605376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>0.68</v>
+      </c>
+      <c r="C42">
+        <v>26040</v>
+      </c>
+      <c r="D42">
+        <v>161.36914203155399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>0.76</v>
+      </c>
+      <c r="C43">
+        <v>20640</v>
+      </c>
+      <c r="D43">
+        <v>143.66627996854299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>0.84</v>
+      </c>
+      <c r="C44">
+        <v>16169</v>
+      </c>
+      <c r="D44">
+        <v>127.157382797854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>0.91999999999999904</v>
+      </c>
+      <c r="C45">
+        <v>12168</v>
+      </c>
+      <c r="D45">
+        <v>110.308657865101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>8893</v>
+      </c>
+      <c r="D46">
+        <v>94.302704096966295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>1.08</v>
+      </c>
+      <c r="C47">
+        <v>6340</v>
+      </c>
+      <c r="D47">
+        <v>79.624116949577498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C48">
+        <v>4309</v>
+      </c>
+      <c r="D48">
+        <v>65.642973729105194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>1.24</v>
+      </c>
+      <c r="C49">
+        <v>2945</v>
+      </c>
+      <c r="D49">
+        <v>54.267854204860498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>1.32</v>
+      </c>
+      <c r="C50">
+        <v>1931</v>
+      </c>
+      <c r="D50">
+        <v>43.943145085439603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>1.4</v>
+      </c>
+      <c r="C51">
+        <v>1139</v>
+      </c>
+      <c r="D51">
+        <v>33.749074061372397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>1.48</v>
+      </c>
+      <c r="C52">
+        <v>680</v>
+      </c>
+      <c r="D52">
+        <v>26.076809620810501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>1.56</v>
+      </c>
+      <c r="C53">
+        <v>396</v>
+      </c>
+      <c r="D53">
+        <v>19.899748742132399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>1.64</v>
+      </c>
+      <c r="C54">
+        <v>236</v>
+      </c>
+      <c r="D54">
+        <v>15.3622914957372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>1.72</v>
+      </c>
+      <c r="C55">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>11.401754250991299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56">
+        <v>1.8</v>
+      </c>
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>7.2111025509279703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57">
+        <v>1.88</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>5.3851648071345002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>1.96</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>3.4641016151377499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>999950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>181033</v>
+      </c>
+      <c r="D9">
+        <v>425.47972924688099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4.5</v>
+      </c>
+      <c r="C10">
+        <v>148066</v>
+      </c>
+      <c r="D10">
+        <v>384.79345108772299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11">
+        <v>122436</v>
+      </c>
+      <c r="D11">
+        <v>349.90855948375997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10.5</v>
+      </c>
+      <c r="C12">
+        <v>99667</v>
+      </c>
+      <c r="D12">
+        <v>315.70080772782302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>13.5</v>
+      </c>
+      <c r="C13">
+        <v>81994</v>
+      </c>
+      <c r="D13">
+        <v>286.34594461944101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>16.5</v>
+      </c>
+      <c r="C14">
+        <v>66412</v>
+      </c>
+      <c r="D14">
+        <v>257.70525799835701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>19.5</v>
+      </c>
+      <c r="C15">
+        <v>54370</v>
+      </c>
+      <c r="D15">
+        <v>233.17375495539801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>22.5</v>
+      </c>
+      <c r="C16">
+        <v>44512</v>
+      </c>
+      <c r="D16">
+        <v>210.97867190784899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>25.5</v>
+      </c>
+      <c r="C17">
+        <v>36353</v>
+      </c>
+      <c r="D17">
+        <v>190.66462702871701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>28.5</v>
+      </c>
+      <c r="C18">
+        <v>30009</v>
+      </c>
+      <c r="D18">
+        <v>173.23105957073599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>31.5</v>
+      </c>
+      <c r="C19">
+        <v>24481</v>
+      </c>
+      <c r="D19">
+        <v>156.46405337968201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>34.5</v>
+      </c>
+      <c r="C20">
+        <v>20167</v>
+      </c>
+      <c r="D20">
+        <v>142.010562987405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>37.5</v>
+      </c>
+      <c r="C21">
+        <v>16478</v>
+      </c>
+      <c r="D21">
+        <v>128.366662338786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>40.5</v>
+      </c>
+      <c r="C22">
+        <v>13382</v>
+      </c>
+      <c r="D22">
+        <v>115.68059474259201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>43.5</v>
+      </c>
+      <c r="C23">
+        <v>10932</v>
+      </c>
+      <c r="D23">
+        <v>104.556204980861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>46.5</v>
+      </c>
+      <c r="C24">
+        <v>8981</v>
+      </c>
+      <c r="D24">
+        <v>94.768138105589003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>49.5</v>
+      </c>
+      <c r="C25">
+        <v>7432</v>
+      </c>
+      <c r="D25">
+        <v>86.2090482490092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>52.5</v>
+      </c>
+      <c r="C26">
+        <v>6042</v>
+      </c>
+      <c r="D26">
+        <v>77.730302971235105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>55.5</v>
+      </c>
+      <c r="C27">
+        <v>4897</v>
+      </c>
+      <c r="D27">
+        <v>69.978568147683603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>58.5</v>
+      </c>
+      <c r="C28">
+        <v>3986</v>
+      </c>
+      <c r="D28">
+        <v>63.134776470658302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>61.5</v>
+      </c>
+      <c r="C29">
+        <v>3309</v>
+      </c>
+      <c r="D29">
+        <v>57.523908073078601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>64.5</v>
+      </c>
+      <c r="C30">
+        <v>2715</v>
+      </c>
+      <c r="D30">
+        <v>52.105661880452097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>67.5</v>
+      </c>
+      <c r="C31">
+        <v>2279</v>
+      </c>
+      <c r="D31">
+        <v>47.738873049120002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>70.5</v>
+      </c>
+      <c r="C32">
+        <v>1828</v>
+      </c>
+      <c r="D32">
+        <v>42.755116652863897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>73.5</v>
+      </c>
+      <c r="C33">
+        <v>1534</v>
+      </c>
+      <c r="D33">
+        <v>39.166312055132202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>76.5</v>
+      </c>
+      <c r="C34">
+        <v>1264</v>
+      </c>
+      <c r="D34">
+        <v>35.552777669262298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>79.5</v>
+      </c>
+      <c r="C35">
+        <v>1008</v>
+      </c>
+      <c r="D35">
+        <v>31.749015732775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>82.5</v>
+      </c>
+      <c r="C36">
+        <v>799</v>
+      </c>
+      <c r="D36">
+        <v>28.266588050205101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>85.5</v>
+      </c>
+      <c r="C37">
+        <v>665</v>
+      </c>
+      <c r="D37">
+        <v>25.787593916455201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>88.5</v>
+      </c>
+      <c r="C38">
+        <v>536</v>
+      </c>
+      <c r="D38">
+        <v>23.151673805580401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>91.5</v>
+      </c>
+      <c r="C39">
+        <v>440</v>
+      </c>
+      <c r="D39">
+        <v>20.976176963402999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>94.5</v>
+      </c>
+      <c r="C40">
+        <v>373</v>
+      </c>
+      <c r="D40">
+        <v>19.313207915827899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>97.5</v>
+      </c>
+      <c r="C41">
+        <v>268</v>
+      </c>
+      <c r="D41">
+        <v>16.370705543744901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>100.5</v>
+      </c>
+      <c r="C42">
+        <v>246</v>
+      </c>
+      <c r="D42">
+        <v>15.6843871413581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>103.5</v>
+      </c>
+      <c r="C43">
+        <v>221</v>
+      </c>
+      <c r="D43">
+        <v>14.866068747318501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>106.5</v>
+      </c>
+      <c r="C44">
+        <v>163</v>
+      </c>
+      <c r="D44">
+        <v>12.767145334803701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>109.5</v>
+      </c>
+      <c r="C45">
+        <v>143</v>
+      </c>
+      <c r="D45">
+        <v>11.958260743101301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>112.5</v>
+      </c>
+      <c r="C46">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>11.13552872566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>115.5</v>
+      </c>
+      <c r="C47">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>8.6602540378443802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>118.5</v>
+      </c>
+      <c r="C48">
+        <v>75</v>
+      </c>
+      <c r="D48">
+        <v>8.6602540378443802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>121.5</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>8.0622577482985491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>124.5</v>
+      </c>
+      <c r="C50">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>6.4807406984078604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>127.5</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>5.6568542494923797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>130.5</v>
+      </c>
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>5.7445626465380197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>133.5</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>4.5825756949558398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>136.5</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>4.7958315233127102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>139.5</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56">
+        <v>142.5</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1.41421356237309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57">
+        <v>145.5</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>3.6055512754639798</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>148.5</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>2.8284271247461898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>